--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8082450072589124</v>
+        <v>0.8082450072589114</v>
       </c>
       <c r="D2">
-        <v>0.9949696550432601</v>
+        <v>0.9949696550432597</v>
       </c>
       <c r="E2">
-        <v>0.8371121287646135</v>
+        <v>0.8371121287646124</v>
       </c>
       <c r="F2">
-        <v>0.8664673990063075</v>
+        <v>0.8664673990063066</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033965908873096</v>
       </c>
       <c r="J2">
-        <v>0.8381933091762817</v>
+        <v>0.8381933091762804</v>
       </c>
       <c r="K2">
         <v>1.006499518296025</v>
       </c>
       <c r="L2">
-        <v>0.8514285637393673</v>
+        <v>0.8514285637393662</v>
       </c>
       <c r="M2">
-        <v>0.8801644506994065</v>
+        <v>0.8801644506994057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8451772855611968</v>
+        <v>0.8451772855611961</v>
       </c>
       <c r="D3">
         <v>1.003742833069384</v>
       </c>
       <c r="E3">
-        <v>0.86904859260853</v>
+        <v>0.8690485926085294</v>
       </c>
       <c r="F3">
-        <v>0.8955330461409383</v>
+        <v>0.8955330461409378</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.037910796900794</v>
       </c>
       <c r="J3">
-        <v>0.8710091033306971</v>
+        <v>0.8710091033306965</v>
       </c>
       <c r="K3">
         <v>1.014328046607746</v>
       </c>
       <c r="L3">
-        <v>0.8816853808010543</v>
+        <v>0.8816853808010539</v>
       </c>
       <c r="M3">
-        <v>0.9077035608809936</v>
+        <v>0.907703560880993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8652626547309583</v>
+        <v>0.8652626547309572</v>
       </c>
       <c r="D4">
         <v>1.008723550362217</v>
       </c>
       <c r="E4">
-        <v>0.8864651292480412</v>
+        <v>0.88646512924804</v>
       </c>
       <c r="F4">
-        <v>0.9115509586798878</v>
+        <v>0.9115509586798872</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040104519805712</v>
       </c>
       <c r="J4">
-        <v>0.8888775607927636</v>
+        <v>0.8888775607927629</v>
       </c>
       <c r="K4">
         <v>1.018717817748111</v>
       </c>
       <c r="L4">
-        <v>0.8981590034956277</v>
+        <v>0.8981590034956269</v>
       </c>
       <c r="M4">
-        <v>0.9228487257878997</v>
+        <v>0.9228487257878991</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.873059506667283</v>
+        <v>0.8730595066672834</v>
       </c>
       <c r="D5">
         <v>1.010693504343579</v>
       </c>
       <c r="E5">
-        <v>0.8932333942602007</v>
+        <v>0.8932333942602008</v>
       </c>
       <c r="F5">
-        <v>0.9178032017269844</v>
+        <v>0.9178032017269842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040962332510142</v>
+        <v>1.040962332510143</v>
       </c>
       <c r="J5">
-        <v>0.8958160989707746</v>
+        <v>0.8958160989707752</v>
       </c>
       <c r="K5">
         <v>1.02044315167704</v>
       </c>
       <c r="L5">
-        <v>0.9045550690623809</v>
+        <v>0.9045550690623811</v>
       </c>
       <c r="M5">
-        <v>0.9287538530098464</v>
+        <v>0.9287538530098463</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8743358542610875</v>
+        <v>0.8743358542610865</v>
       </c>
       <c r="D6">
-        <v>1.011017844405217</v>
+        <v>1.011017844405218</v>
       </c>
       <c r="E6">
-        <v>0.894341717055023</v>
+        <v>0.8943417170550222</v>
       </c>
       <c r="F6">
-        <v>0.918828384533796</v>
+        <v>0.9188283845337956</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041103009120789</v>
+        <v>1.04110300912079</v>
       </c>
       <c r="J6">
-        <v>0.8969520141874946</v>
+        <v>0.8969520141874936</v>
       </c>
       <c r="K6">
         <v>1.020726620639491</v>
       </c>
       <c r="L6">
-        <v>0.9056021171379594</v>
+        <v>0.9056021171379586</v>
       </c>
       <c r="M6">
-        <v>0.9297217598256186</v>
+        <v>0.9297217598256179</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8653691329660291</v>
+        <v>0.8653691329660307</v>
       </c>
       <c r="D7">
-        <v>1.008750319842062</v>
+        <v>1.008750319842061</v>
       </c>
       <c r="E7">
-        <v>0.8865575345373738</v>
+        <v>0.8865575345373748</v>
       </c>
       <c r="F7">
         <v>0.9116362204062766</v>
@@ -629,16 +629,16 @@
         <v>1.040116214923356</v>
       </c>
       <c r="J7">
-        <v>0.8889723111586256</v>
+        <v>0.8889723111586271</v>
       </c>
       <c r="K7">
-        <v>1.018741304654054</v>
+        <v>1.018741304654053</v>
       </c>
       <c r="L7">
-        <v>0.8982463498685587</v>
+        <v>0.8982463498685594</v>
       </c>
       <c r="M7">
-        <v>0.9229292789066346</v>
+        <v>0.9229292789066345</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
         <v>0.8217374457555302</v>
       </c>
       <c r="D8">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E8">
         <v>0.848764433300354</v>
       </c>
       <c r="F8">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K8">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L8">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M8">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
         <v>0.8217374457555302</v>
       </c>
       <c r="D9">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E9">
         <v>0.848764433300354</v>
       </c>
       <c r="F9">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K9">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L9">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M9">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
         <v>0.8217374457555302</v>
       </c>
       <c r="D10">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E10">
         <v>0.848764433300354</v>
       </c>
       <c r="F10">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K10">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L10">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M10">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,19 +760,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
         <v>0.8217374457555302</v>
       </c>
       <c r="D11">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E11">
         <v>0.848764433300354</v>
       </c>
       <c r="F11">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K11">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L11">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M11">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,19 +798,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
         <v>0.8217374457555302</v>
       </c>
       <c r="D12">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E12">
         <v>0.848764433300354</v>
       </c>
       <c r="F12">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K12">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L12">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M12">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,19 +836,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
         <v>0.8217374457555302</v>
       </c>
       <c r="D13">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E13">
         <v>0.848764433300354</v>
       </c>
       <c r="F13">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K13">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L13">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M13">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
         <v>0.8217374457555302</v>
       </c>
       <c r="D14">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E14">
         <v>0.848764433300354</v>
       </c>
       <c r="F14">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K14">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L14">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M14">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
         <v>0.8217374457555302</v>
       </c>
       <c r="D15">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E15">
         <v>0.848764433300354</v>
       </c>
       <c r="F15">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -936,13 +936,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K15">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L15">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M15">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
         <v>0.8217374457555302</v>
       </c>
       <c r="D16">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E16">
         <v>0.848764433300354</v>
       </c>
       <c r="F16">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K16">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L16">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M16">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,19 +988,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
         <v>0.8217374457555302</v>
       </c>
       <c r="D17">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E17">
         <v>0.848764433300354</v>
       </c>
       <c r="F17">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K17">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L17">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M17">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,19 +1026,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
         <v>0.8217374457555302</v>
       </c>
       <c r="D18">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E18">
         <v>0.848764433300354</v>
       </c>
       <c r="F18">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,13 +1050,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K18">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L18">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M18">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
         <v>0.8217374457555302</v>
       </c>
       <c r="D19">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E19">
         <v>0.848764433300354</v>
       </c>
       <c r="F19">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K19">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L19">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M19">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,19 +1102,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
         <v>0.8217374457555302</v>
       </c>
       <c r="D20">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E20">
         <v>0.848764433300354</v>
       </c>
       <c r="F20">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,13 +1126,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K20">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L20">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M20">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,19 +1140,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
         <v>0.8217374457555302</v>
       </c>
       <c r="D21">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E21">
         <v>0.848764433300354</v>
       </c>
       <c r="F21">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1164,13 +1164,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K21">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L21">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M21">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,19 +1178,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
         <v>0.8217374457555302</v>
       </c>
       <c r="D22">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E22">
         <v>0.848764433300354</v>
       </c>
       <c r="F22">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K22">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L22">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M22">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
         <v>0.8217374457555302</v>
       </c>
       <c r="D23">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E23">
         <v>0.848764433300354</v>
       </c>
       <c r="F23">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K23">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L23">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M23">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
         <v>0.8217374457555302</v>
       </c>
       <c r="D24">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E24">
         <v>0.848764433300354</v>
       </c>
       <c r="F24">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K24">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L24">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M24">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
         <v>0.8217374457555302</v>
       </c>
       <c r="D25">
-        <v>0.9981139819189766</v>
+        <v>0.998113981918977</v>
       </c>
       <c r="E25">
         <v>0.848764433300354</v>
       </c>
       <c r="F25">
-        <v>0.8770222448139646</v>
+        <v>0.8770222448139647</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K25">
-        <v>1.009319561271283</v>
+        <v>1.009319561271284</v>
       </c>
       <c r="L25">
-        <v>0.8624748836360755</v>
+        <v>0.8624748836360754</v>
       </c>
       <c r="M25">
-        <v>0.8901732136335324</v>
+        <v>0.8901732136335325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8082450072589114</v>
+        <v>0.8082450072589124</v>
       </c>
       <c r="D2">
-        <v>0.9949696550432597</v>
+        <v>0.9949696550432601</v>
       </c>
       <c r="E2">
-        <v>0.8371121287646124</v>
+        <v>0.8371121287646135</v>
       </c>
       <c r="F2">
-        <v>0.8664673990063066</v>
+        <v>0.8664673990063075</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.033965908873096</v>
       </c>
       <c r="J2">
-        <v>0.8381933091762804</v>
+        <v>0.8381933091762817</v>
       </c>
       <c r="K2">
         <v>1.006499518296025</v>
       </c>
       <c r="L2">
-        <v>0.8514285637393662</v>
+        <v>0.8514285637393673</v>
       </c>
       <c r="M2">
-        <v>0.8801644506994057</v>
+        <v>0.8801644506994065</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8451772855611961</v>
+        <v>0.8451772855611968</v>
       </c>
       <c r="D3">
         <v>1.003742833069384</v>
       </c>
       <c r="E3">
-        <v>0.8690485926085294</v>
+        <v>0.86904859260853</v>
       </c>
       <c r="F3">
-        <v>0.8955330461409378</v>
+        <v>0.8955330461409383</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.037910796900794</v>
       </c>
       <c r="J3">
-        <v>0.8710091033306965</v>
+        <v>0.8710091033306971</v>
       </c>
       <c r="K3">
         <v>1.014328046607746</v>
       </c>
       <c r="L3">
-        <v>0.8816853808010539</v>
+        <v>0.8816853808010543</v>
       </c>
       <c r="M3">
-        <v>0.907703560880993</v>
+        <v>0.9077035608809936</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8652626547309572</v>
+        <v>0.8652626547309583</v>
       </c>
       <c r="D4">
         <v>1.008723550362217</v>
       </c>
       <c r="E4">
-        <v>0.88646512924804</v>
+        <v>0.8864651292480412</v>
       </c>
       <c r="F4">
-        <v>0.9115509586798872</v>
+        <v>0.9115509586798878</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040104519805712</v>
       </c>
       <c r="J4">
-        <v>0.8888775607927629</v>
+        <v>0.8888775607927636</v>
       </c>
       <c r="K4">
         <v>1.018717817748111</v>
       </c>
       <c r="L4">
-        <v>0.8981590034956269</v>
+        <v>0.8981590034956277</v>
       </c>
       <c r="M4">
-        <v>0.9228487257878991</v>
+        <v>0.9228487257878997</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8730595066672834</v>
+        <v>0.873059506667283</v>
       </c>
       <c r="D5">
         <v>1.010693504343579</v>
       </c>
       <c r="E5">
-        <v>0.8932333942602008</v>
+        <v>0.8932333942602007</v>
       </c>
       <c r="F5">
-        <v>0.9178032017269842</v>
+        <v>0.9178032017269844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040962332510143</v>
+        <v>1.040962332510142</v>
       </c>
       <c r="J5">
-        <v>0.8958160989707752</v>
+        <v>0.8958160989707746</v>
       </c>
       <c r="K5">
         <v>1.02044315167704</v>
       </c>
       <c r="L5">
-        <v>0.9045550690623811</v>
+        <v>0.9045550690623809</v>
       </c>
       <c r="M5">
-        <v>0.9287538530098463</v>
+        <v>0.9287538530098464</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8743358542610865</v>
+        <v>0.8743358542610875</v>
       </c>
       <c r="D6">
-        <v>1.011017844405218</v>
+        <v>1.011017844405217</v>
       </c>
       <c r="E6">
-        <v>0.8943417170550222</v>
+        <v>0.894341717055023</v>
       </c>
       <c r="F6">
-        <v>0.9188283845337956</v>
+        <v>0.918828384533796</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04110300912079</v>
+        <v>1.041103009120789</v>
       </c>
       <c r="J6">
-        <v>0.8969520141874936</v>
+        <v>0.8969520141874946</v>
       </c>
       <c r="K6">
         <v>1.020726620639491</v>
       </c>
       <c r="L6">
-        <v>0.9056021171379586</v>
+        <v>0.9056021171379594</v>
       </c>
       <c r="M6">
-        <v>0.9297217598256179</v>
+        <v>0.9297217598256186</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8653691329660307</v>
+        <v>0.8653691329660291</v>
       </c>
       <c r="D7">
-        <v>1.008750319842061</v>
+        <v>1.008750319842062</v>
       </c>
       <c r="E7">
-        <v>0.8865575345373748</v>
+        <v>0.8865575345373738</v>
       </c>
       <c r="F7">
         <v>0.9116362204062766</v>
@@ -629,16 +629,16 @@
         <v>1.040116214923356</v>
       </c>
       <c r="J7">
-        <v>0.8889723111586271</v>
+        <v>0.8889723111586256</v>
       </c>
       <c r="K7">
-        <v>1.018741304654053</v>
+        <v>1.018741304654054</v>
       </c>
       <c r="L7">
-        <v>0.8982463498685594</v>
+        <v>0.8982463498685587</v>
       </c>
       <c r="M7">
-        <v>0.9229292789066345</v>
+        <v>0.9229292789066346</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
         <v>0.8217374457555302</v>
       </c>
       <c r="D8">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E8">
         <v>0.848764433300354</v>
       </c>
       <c r="F8">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K8">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L8">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M8">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
         <v>0.8217374457555302</v>
       </c>
       <c r="D9">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E9">
         <v>0.848764433300354</v>
       </c>
       <c r="F9">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K9">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L9">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M9">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
         <v>0.8217374457555302</v>
       </c>
       <c r="D10">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E10">
         <v>0.848764433300354</v>
       </c>
       <c r="F10">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K10">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L10">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M10">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,19 +760,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C11">
         <v>0.8217374457555302</v>
       </c>
       <c r="D11">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E11">
         <v>0.848764433300354</v>
       </c>
       <c r="F11">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K11">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L11">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M11">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,19 +798,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
         <v>0.8217374457555302</v>
       </c>
       <c r="D12">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E12">
         <v>0.848764433300354</v>
       </c>
       <c r="F12">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K12">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L12">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M12">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,19 +836,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C13">
         <v>0.8217374457555302</v>
       </c>
       <c r="D13">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E13">
         <v>0.848764433300354</v>
       </c>
       <c r="F13">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K13">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L13">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M13">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,19 +874,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
         <v>0.8217374457555302</v>
       </c>
       <c r="D14">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E14">
         <v>0.848764433300354</v>
       </c>
       <c r="F14">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -898,13 +898,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K14">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L14">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M14">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
         <v>0.8217374457555302</v>
       </c>
       <c r="D15">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E15">
         <v>0.848764433300354</v>
       </c>
       <c r="F15">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -936,13 +936,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K15">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L15">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M15">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,19 +950,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
         <v>0.8217374457555302</v>
       </c>
       <c r="D16">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E16">
         <v>0.848764433300354</v>
       </c>
       <c r="F16">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K16">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L16">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M16">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,19 +988,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
         <v>0.8217374457555302</v>
       </c>
       <c r="D17">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E17">
         <v>0.848764433300354</v>
       </c>
       <c r="F17">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K17">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L17">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M17">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,19 +1026,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
         <v>0.8217374457555302</v>
       </c>
       <c r="D18">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E18">
         <v>0.848764433300354</v>
       </c>
       <c r="F18">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,13 +1050,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K18">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L18">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M18">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,19 +1064,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C19">
         <v>0.8217374457555302</v>
       </c>
       <c r="D19">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E19">
         <v>0.848764433300354</v>
       </c>
       <c r="F19">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1088,13 +1088,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K19">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L19">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M19">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,19 +1102,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
         <v>0.8217374457555302</v>
       </c>
       <c r="D20">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E20">
         <v>0.848764433300354</v>
       </c>
       <c r="F20">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,13 +1126,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K20">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L20">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M20">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,19 +1140,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
         <v>0.8217374457555302</v>
       </c>
       <c r="D21">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E21">
         <v>0.848764433300354</v>
       </c>
       <c r="F21">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1164,13 +1164,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K21">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L21">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M21">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,19 +1178,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
         <v>0.8217374457555302</v>
       </c>
       <c r="D22">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E22">
         <v>0.848764433300354</v>
       </c>
       <c r="F22">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1202,13 +1202,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K22">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L22">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M22">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,19 +1216,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
         <v>0.8217374457555302</v>
       </c>
       <c r="D23">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E23">
         <v>0.848764433300354</v>
       </c>
       <c r="F23">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1240,13 +1240,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K23">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L23">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M23">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
         <v>0.8217374457555302</v>
       </c>
       <c r="D24">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E24">
         <v>0.848764433300354</v>
       </c>
       <c r="F24">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K24">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L24">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M24">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
         <v>0.8217374457555302</v>
       </c>
       <c r="D25">
-        <v>0.998113981918977</v>
+        <v>0.9981139819189766</v>
       </c>
       <c r="E25">
         <v>0.848764433300354</v>
       </c>
       <c r="F25">
-        <v>0.8770222448139647</v>
+        <v>0.8770222448139646</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,13 +1316,13 @@
         <v>0.8501740434289943</v>
       </c>
       <c r="K25">
-        <v>1.009319561271284</v>
+        <v>1.009319561271283</v>
       </c>
       <c r="L25">
-        <v>0.8624748836360754</v>
+        <v>0.8624748836360755</v>
       </c>
       <c r="M25">
-        <v>0.8901732136335325</v>
+        <v>0.8901732136335324</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8082450072589124</v>
+        <v>0.8157180430974402</v>
       </c>
       <c r="D2">
-        <v>0.9949696550432601</v>
+        <v>0.9960228546655752</v>
       </c>
       <c r="E2">
-        <v>0.8371121287646135</v>
+        <v>0.8435247273429767</v>
       </c>
       <c r="F2">
-        <v>0.8664673990063075</v>
+        <v>0.8713036693516123</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033965908873096</v>
+        <v>1.034500089134398</v>
       </c>
       <c r="J2">
-        <v>0.8381933091762817</v>
+        <v>0.8452630611188968</v>
       </c>
       <c r="K2">
-        <v>1.006499518296025</v>
+        <v>1.007537876940772</v>
       </c>
       <c r="L2">
-        <v>0.8514285637393673</v>
+        <v>0.857700974398819</v>
       </c>
       <c r="M2">
-        <v>0.8801644506994065</v>
+        <v>0.8849039395724636</v>
+      </c>
+      <c r="N2">
+        <v>0.8464634316187138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8451772855611968</v>
+        <v>0.8519593959282692</v>
       </c>
       <c r="D3">
-        <v>1.003742833069384</v>
+        <v>1.004685379955671</v>
       </c>
       <c r="E3">
-        <v>0.86904859260853</v>
+        <v>0.8748862840356315</v>
       </c>
       <c r="F3">
-        <v>0.8955330461409383</v>
+        <v>0.8998856759431612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037910796900794</v>
+        <v>1.038389492042317</v>
       </c>
       <c r="J3">
-        <v>0.8710091033306971</v>
+        <v>0.8774989035196775</v>
       </c>
       <c r="K3">
-        <v>1.014328046607746</v>
+        <v>1.015258659451874</v>
       </c>
       <c r="L3">
-        <v>0.8816853808010543</v>
+        <v>0.8874171445422903</v>
       </c>
       <c r="M3">
-        <v>0.9077035608809936</v>
+        <v>0.9119829444687181</v>
+      </c>
+      <c r="N3">
+        <v>0.8787450526132065</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8652626547309583</v>
+        <v>0.8717748847827157</v>
       </c>
       <c r="D4">
-        <v>1.008723550362217</v>
+        <v>1.009621722764645</v>
       </c>
       <c r="E4">
-        <v>0.8864651292480412</v>
+        <v>0.8920783628874541</v>
       </c>
       <c r="F4">
-        <v>0.9115509586798878</v>
+        <v>0.915711575723088</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040104519805712</v>
+        <v>1.040561057353982</v>
       </c>
       <c r="J4">
-        <v>0.8888775607927636</v>
+        <v>0.8951439250191694</v>
       </c>
       <c r="K4">
-        <v>1.018717817748111</v>
+        <v>1.019605392692151</v>
       </c>
       <c r="L4">
-        <v>0.8981590034956277</v>
+        <v>0.9036811215145591</v>
       </c>
       <c r="M4">
-        <v>0.9228487257878997</v>
+        <v>0.9269463185588709</v>
+      </c>
+      <c r="N4">
+        <v>0.8964151320671401</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.873059506667283</v>
+        <v>0.8794820050510391</v>
       </c>
       <c r="D5">
-        <v>1.010693504343579</v>
+        <v>1.011576717035806</v>
       </c>
       <c r="E5">
-        <v>0.8932333942602007</v>
+        <v>0.8987720524802679</v>
       </c>
       <c r="F5">
-        <v>0.9178032017269844</v>
+        <v>0.9218994243494955</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040962332510142</v>
+        <v>1.041411420636245</v>
       </c>
       <c r="J5">
-        <v>0.8958160989707746</v>
+        <v>0.9020088180288045</v>
       </c>
       <c r="K5">
-        <v>1.02044315167704</v>
+        <v>1.021316252994961</v>
       </c>
       <c r="L5">
-        <v>0.9045550690623809</v>
+        <v>0.9100078288391562</v>
       </c>
       <c r="M5">
-        <v>0.9287538530098464</v>
+        <v>0.9327906569531146</v>
+      </c>
+      <c r="N5">
+        <v>0.9032897740122631</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8743358542610875</v>
+        <v>0.8807443751617735</v>
       </c>
       <c r="D6">
-        <v>1.011017844405217</v>
+        <v>1.011898716061986</v>
       </c>
       <c r="E6">
-        <v>0.894341717055023</v>
+        <v>0.8998687624673839</v>
       </c>
       <c r="F6">
-        <v>0.918828384533796</v>
+        <v>0.9229145474268579</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041103009120789</v>
+        <v>1.041550932675248</v>
       </c>
       <c r="J6">
-        <v>0.8969520141874946</v>
+        <v>0.9031332979762461</v>
       </c>
       <c r="K6">
-        <v>1.020726620639491</v>
+        <v>1.021597458992448</v>
       </c>
       <c r="L6">
-        <v>0.9056021171379594</v>
+        <v>0.9110440932149663</v>
       </c>
       <c r="M6">
-        <v>0.9297217598256186</v>
+        <v>0.933749077238675</v>
+      </c>
+      <c r="N6">
+        <v>0.9044158508502094</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8653691329660291</v>
+        <v>0.8718800854994839</v>
       </c>
       <c r="D7">
-        <v>1.008750319842062</v>
+        <v>1.009648280063994</v>
       </c>
       <c r="E7">
-        <v>0.8865575345373738</v>
+        <v>0.8921697061805527</v>
       </c>
       <c r="F7">
-        <v>0.9116362204062766</v>
+        <v>0.9157959228196482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040116214923356</v>
+        <v>1.040572646728023</v>
       </c>
       <c r="J7">
-        <v>0.8889723111586256</v>
+        <v>0.895237624244099</v>
       </c>
       <c r="K7">
-        <v>1.018741304654054</v>
+        <v>1.019628674166893</v>
       </c>
       <c r="L7">
-        <v>0.8982463498685587</v>
+        <v>0.9037674789724288</v>
       </c>
       <c r="M7">
-        <v>0.9229292789066346</v>
+        <v>0.9270260075379283</v>
+      </c>
+      <c r="N7">
+        <v>0.8965089643557163</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8217374457555302</v>
+        <v>0.8289225949027623</v>
       </c>
       <c r="D8">
-        <v>0.9981139819189766</v>
+        <v>0.9991214863681738</v>
       </c>
       <c r="E8">
-        <v>0.848764433300354</v>
+        <v>0.8549374909414866</v>
       </c>
       <c r="F8">
-        <v>0.8770222448139646</v>
+        <v>0.8816581060588532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035391160249219</v>
+        <v>1.035902398727634</v>
       </c>
       <c r="J8">
-        <v>0.8501740434289943</v>
+        <v>0.8570011480424177</v>
       </c>
       <c r="K8">
-        <v>1.009319561271283</v>
+        <v>1.010313370843771</v>
       </c>
       <c r="L8">
-        <v>0.8624748836360755</v>
+        <v>0.8685215599496967</v>
       </c>
       <c r="M8">
-        <v>0.8901732136335324</v>
+        <v>0.8947217581110876</v>
+      </c>
+      <c r="N8">
+        <v>0.8582181879720434</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D9">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E9">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F9">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J9">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K9">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L9">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M9">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N9">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D10">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E10">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F10">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J10">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K10">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L10">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M10">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N10">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D11">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E11">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F11">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J11">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K11">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L11">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M11">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N11">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D12">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E12">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F12">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J12">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K12">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L12">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M12">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N12">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D13">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E13">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F13">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J13">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K13">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L13">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M13">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N13">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D14">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E14">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F14">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J14">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K14">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L14">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M14">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N14">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D15">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E15">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F15">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J15">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K15">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L15">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M15">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N15">
+        <v>0.7219545602223059</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,379 +992,409 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D16">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E16">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F16">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J16">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K16">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L16">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M16">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N16">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D17">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E17">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F17">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J17">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K17">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L17">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M17">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N17">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D18">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E18">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F18">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J18">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K18">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L18">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M18">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N18">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D19">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E19">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F19">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J19">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K19">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L19">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M19">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N19">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D20">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E20">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F20">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J20">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K20">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L20">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M20">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N20">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D21">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E21">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F21">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J21">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K21">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L21">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M21">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N21">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D22">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E22">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F22">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J22">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K22">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L22">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M22">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N22">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D23">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E23">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F23">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J23">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K23">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L23">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M23">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N23">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D24">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E24">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F24">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J24">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K24">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L24">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M24">
-        <v>0.8901732136335324</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N24">
+        <v>0.7219545602223059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8217374457555302</v>
+        <v>0.674702174983611</v>
       </c>
       <c r="D25">
-        <v>0.9981139819189766</v>
+        <v>0.9676703766692925</v>
       </c>
       <c r="E25">
-        <v>0.848764433300354</v>
+        <v>0.7232054943042558</v>
       </c>
       <c r="F25">
-        <v>0.8770222448139646</v>
+        <v>0.7665183647995347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035391160249219</v>
+        <v>1.02110618422465</v>
       </c>
       <c r="J25">
-        <v>0.8501740434289943</v>
+        <v>0.7209307558570752</v>
       </c>
       <c r="K25">
-        <v>1.009319561271283</v>
+        <v>0.9813107022094025</v>
       </c>
       <c r="L25">
-        <v>0.8624748836360755</v>
+        <v>0.7432583758736909</v>
       </c>
       <c r="M25">
-        <v>0.8901732136335324</v>
+        <v>0.7850192153130267</v>
+      </c>
+      <c r="N25">
+        <v>0.7219545602223059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8157180430974402</v>
+        <v>0.8467028396962646</v>
       </c>
       <c r="D2">
-        <v>0.9960228546655752</v>
+        <v>1.017321367383015</v>
       </c>
       <c r="E2">
-        <v>0.8435247273429767</v>
+        <v>0.8708595492993491</v>
       </c>
       <c r="F2">
-        <v>0.8713036693516123</v>
+        <v>0.8130232624657544</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034500089134398</v>
+        <v>1.030521818628867</v>
       </c>
       <c r="J2">
-        <v>0.8452630611188968</v>
+        <v>0.8746846177293385</v>
       </c>
       <c r="K2">
-        <v>1.007537876940772</v>
+        <v>1.028544549212752</v>
       </c>
       <c r="L2">
-        <v>0.857700974398819</v>
+        <v>0.8844686481471254</v>
       </c>
       <c r="M2">
-        <v>0.8849039395724636</v>
+        <v>0.8278928460758285</v>
       </c>
       <c r="N2">
-        <v>0.8464634316187138</v>
+        <v>0.8759267702142421</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.8519593959282692</v>
+        <v>0.8772502098979633</v>
       </c>
       <c r="D3">
-        <v>1.004685379955671</v>
+        <v>1.022299580780726</v>
       </c>
       <c r="E3">
-        <v>0.8748862840356315</v>
+        <v>0.8972368145653454</v>
       </c>
       <c r="F3">
-        <v>0.8998856759431612</v>
+        <v>0.8493849499612331</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038389492042317</v>
+        <v>1.033992755714153</v>
       </c>
       <c r="J3">
-        <v>0.8774989035196775</v>
+        <v>0.9017558626481904</v>
       </c>
       <c r="K3">
-        <v>1.015258659451874</v>
+        <v>1.032654868523448</v>
       </c>
       <c r="L3">
-        <v>0.8874171445422903</v>
+        <v>0.9093785490531935</v>
       </c>
       <c r="M3">
-        <v>0.9119829444687181</v>
+        <v>0.8623925910117742</v>
       </c>
       <c r="N3">
-        <v>0.8787450526132065</v>
+        <v>0.9030364594059939</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.8717748847827157</v>
+        <v>0.8942512297063253</v>
       </c>
       <c r="D4">
-        <v>1.009621722764645</v>
+        <v>1.025198915271146</v>
       </c>
       <c r="E4">
-        <v>0.8920783628874541</v>
+        <v>0.9119497269490339</v>
       </c>
       <c r="F4">
-        <v>0.915711575723088</v>
+        <v>0.8695175886417162</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040561057353982</v>
+        <v>1.03593614733592</v>
       </c>
       <c r="J4">
-        <v>0.8951439250191694</v>
+        <v>0.9168100382499826</v>
       </c>
       <c r="K4">
-        <v>1.019605392692151</v>
+        <v>1.035002434487483</v>
       </c>
       <c r="L4">
-        <v>0.9036811215145591</v>
+        <v>0.9232414218237074</v>
       </c>
       <c r="M4">
-        <v>0.9269463185588709</v>
+        <v>0.8814957873479538</v>
       </c>
       <c r="N4">
-        <v>0.8964151320671401</v>
+        <v>0.9181120136638787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.8794820050510391</v>
+        <v>0.9009084124919319</v>
       </c>
       <c r="D5">
-        <v>1.011576717035806</v>
+        <v>1.026358877602841</v>
       </c>
       <c r="E5">
-        <v>0.8987720524802679</v>
+        <v>0.917716388396898</v>
       </c>
       <c r="F5">
-        <v>0.9218994243494955</v>
+        <v>0.8773850405915922</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041411420636245</v>
+        <v>1.036698031301592</v>
       </c>
       <c r="J5">
-        <v>0.9020088180288045</v>
+        <v>0.9227015268692146</v>
       </c>
       <c r="K5">
-        <v>1.021316252994961</v>
+        <v>1.035932357500672</v>
       </c>
       <c r="L5">
-        <v>0.9100078288391562</v>
+        <v>0.9286683062518358</v>
       </c>
       <c r="M5">
-        <v>0.9327906569531146</v>
+        <v>0.8889602062779403</v>
       </c>
       <c r="N5">
-        <v>0.9032897740122631</v>
+        <v>0.9240118688727134</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.8807443751617735</v>
+        <v>0.902000962000852</v>
       </c>
       <c r="D6">
-        <v>1.011898716061986</v>
+        <v>1.026550559188746</v>
       </c>
       <c r="E6">
-        <v>0.8998687624673839</v>
+        <v>0.9186630587434732</v>
       </c>
       <c r="F6">
-        <v>0.9229145474268579</v>
+        <v>0.878675454585827</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041550932675248</v>
+        <v>1.036823078495904</v>
       </c>
       <c r="J6">
-        <v>0.9031332979762461</v>
+        <v>0.9236682062671115</v>
       </c>
       <c r="K6">
-        <v>1.021597458992448</v>
+        <v>1.03608551800932</v>
       </c>
       <c r="L6">
-        <v>0.9110440932149663</v>
+        <v>0.9295588288851061</v>
       </c>
       <c r="M6">
-        <v>0.933749077238675</v>
+        <v>0.8901844492314794</v>
       </c>
       <c r="N6">
-        <v>0.9044158508502094</v>
+        <v>0.9249799210662349</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.8718800854994839</v>
+        <v>0.8943419421980554</v>
       </c>
       <c r="D7">
-        <v>1.009648280063994</v>
+        <v>1.02521462854894</v>
       </c>
       <c r="E7">
-        <v>0.8921697061805527</v>
+        <v>0.9120282854962967</v>
       </c>
       <c r="F7">
-        <v>0.9157959228196482</v>
+        <v>0.869624848181014</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040572646728023</v>
+        <v>1.035946527392526</v>
       </c>
       <c r="J7">
-        <v>0.895237624244099</v>
+        <v>0.9168903311840563</v>
       </c>
       <c r="K7">
-        <v>1.019628674166893</v>
+        <v>1.035015066845284</v>
       </c>
       <c r="L7">
-        <v>0.9037674789724288</v>
+        <v>0.9233153772636684</v>
       </c>
       <c r="M7">
-        <v>0.9270260075379283</v>
+        <v>0.8815975562765633</v>
       </c>
       <c r="N7">
-        <v>0.8965089643557163</v>
+        <v>0.9181924206231283</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8289225949027623</v>
+        <v>0.8577367823749467</v>
       </c>
       <c r="D8">
-        <v>0.9991214863681738</v>
+        <v>1.01908489843483</v>
       </c>
       <c r="E8">
-        <v>0.8549374909414866</v>
+        <v>0.8803776376016178</v>
       </c>
       <c r="F8">
-        <v>0.8816581060588532</v>
+        <v>0.8261893778587854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035902398727634</v>
+        <v>1.031771304667922</v>
       </c>
       <c r="J8">
-        <v>0.8570011480424177</v>
+        <v>0.8844653938685288</v>
       </c>
       <c r="K8">
-        <v>1.010313370843771</v>
+        <v>1.030012412204523</v>
       </c>
       <c r="L8">
-        <v>0.8685215599496967</v>
+        <v>0.8934652873257362</v>
       </c>
       <c r="M8">
-        <v>0.8947217581110876</v>
+        <v>0.8403834258458964</v>
       </c>
       <c r="N8">
-        <v>0.8582181879720434</v>
+        <v>0.8857214361774208</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D9">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E9">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F9">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J9">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K9">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L9">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M9">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N9">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D10">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E10">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F10">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J10">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K10">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L10">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M10">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N10">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D11">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E11">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F11">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J11">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K11">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L11">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M11">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N11">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D12">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E12">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F12">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J12">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K12">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L12">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M12">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N12">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D13">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E13">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F13">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J13">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K13">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L13">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M13">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N13">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D14">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E14">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F14">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J14">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K14">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L14">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M14">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N14">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D15">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E15">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F15">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J15">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K15">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L15">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M15">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N15">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D16">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E16">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F16">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J16">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K16">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L16">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M16">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N16">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D17">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E17">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F17">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J17">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K17">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L17">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M17">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N17">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D18">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E18">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F18">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J18">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K18">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L18">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M18">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N18">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D19">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E19">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F19">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J19">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K19">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L19">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M19">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N19">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D20">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E20">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F20">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J20">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K20">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L20">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M20">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N20">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D21">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E21">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F21">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J21">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K21">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L21">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M21">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N21">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D22">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E22">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F22">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J22">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K22">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L22">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M22">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N22">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D23">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E23">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F23">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J23">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K23">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L23">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M23">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N23">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D24">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E24">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F24">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J24">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K24">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L24">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M24">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N24">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.674702174983611</v>
+        <v>0.7477127778549184</v>
       </c>
       <c r="D25">
-        <v>0.9676703766692925</v>
+        <v>1.003296067400969</v>
       </c>
       <c r="E25">
-        <v>0.7232054943042558</v>
+        <v>0.78611254360278</v>
       </c>
       <c r="F25">
-        <v>0.7665183647995347</v>
+        <v>0.6922699175997276</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02110618422465</v>
+        <v>1.019677109373098</v>
       </c>
       <c r="J25">
-        <v>0.7209307558570752</v>
+        <v>0.7869191737212666</v>
       </c>
       <c r="K25">
-        <v>0.9813107022094025</v>
+        <v>1.01633589361081</v>
       </c>
       <c r="L25">
-        <v>0.7432583758736909</v>
+        <v>0.8039885191438093</v>
       </c>
       <c r="M25">
-        <v>0.7850192153130267</v>
+        <v>0.7136025448132197</v>
       </c>
       <c r="N25">
-        <v>0.7219545602223059</v>
+        <v>0.7880366892088418</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9930084505699148</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.030263256528299</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9962096142533021</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9909409138966846</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.02955528997503</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.9983654513757799</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.033074774661431</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9991234862284134</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9938713082539624</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.9997832448308503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.000101573784634</v>
+      </c>
+      <c r="D3">
+        <v>1.030606612076188</v>
+      </c>
+      <c r="E3">
+        <v>1.002539632169409</v>
+      </c>
+      <c r="F3">
+        <v>0.998800783312061</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.029546965970127</v>
+      </c>
+      <c r="J3">
+        <v>1.005049629549494</v>
+      </c>
+      <c r="K3">
+        <v>1.033227698754684</v>
+      </c>
+      <c r="L3">
+        <v>1.005238523595308</v>
+      </c>
+      <c r="M3">
+        <v>1.001510397609223</v>
+      </c>
+      <c r="N3">
+        <v>1.006476915304258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.004577625974288</v>
+      </c>
+      <c r="D4">
+        <v>1.030828240658591</v>
+      </c>
+      <c r="E4">
+        <v>1.006530450827754</v>
+      </c>
+      <c r="F4">
+        <v>1.00376477868173</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.029539753632458</v>
+      </c>
+      <c r="J4">
+        <v>1.00926435117339</v>
+      </c>
+      <c r="K4">
+        <v>1.0333253549493</v>
+      </c>
+      <c r="L4">
+        <v>1.009091298923285</v>
+      </c>
+      <c r="M4">
+        <v>1.006333092772</v>
+      </c>
+      <c r="N4">
+        <v>1.010697622316295</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.00643368087013</v>
+      </c>
+      <c r="D5">
+        <v>1.030921280219693</v>
+      </c>
+      <c r="E5">
+        <v>1.008184407704152</v>
+      </c>
+      <c r="F5">
+        <v>1.00582415859297</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.029536283262567</v>
+      </c>
+      <c r="J5">
+        <v>1.011011261408891</v>
+      </c>
+      <c r="K5">
+        <v>1.0333660975551</v>
+      </c>
+      <c r="L5">
+        <v>1.010687449890045</v>
+      </c>
+      <c r="M5">
+        <v>1.008333407787024</v>
+      </c>
+      <c r="N5">
+        <v>1.012447013364704</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.006743857377935</v>
+      </c>
+      <c r="D6">
+        <v>1.030936894093018</v>
+      </c>
+      <c r="E6">
+        <v>1.008460757943759</v>
+      </c>
+      <c r="F6">
+        <v>1.006168372622093</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.029535674837201</v>
+      </c>
+      <c r="J6">
+        <v>1.011303152326119</v>
+      </c>
+      <c r="K6">
+        <v>1.033372920065691</v>
+      </c>
+      <c r="L6">
+        <v>1.01095410685342</v>
+      </c>
+      <c r="M6">
+        <v>1.008667723380766</v>
+      </c>
+      <c r="N6">
+        <v>1.012739318800514</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.004602525622243</v>
+      </c>
+      <c r="D7">
+        <v>1.030829484383891</v>
+      </c>
+      <c r="E7">
+        <v>1.006552642781277</v>
+      </c>
+      <c r="F7">
+        <v>1.003792402070271</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.029539708984831</v>
+      </c>
+      <c r="J7">
+        <v>1.009287789686426</v>
+      </c>
+      <c r="K7">
+        <v>1.033325900582437</v>
+      </c>
+      <c r="L7">
+        <v>1.009112717611803</v>
+      </c>
+      <c r="M7">
+        <v>1.006359925650492</v>
+      </c>
+      <c r="N7">
+        <v>1.010721094114708</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>0.9954301051588915</v>
+      </c>
+      <c r="D8">
+        <v>1.030379406564799</v>
+      </c>
+      <c r="E8">
+        <v>0.9983715088152648</v>
+      </c>
+      <c r="F8">
+        <v>0.993623487805529</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.02955285428455</v>
+      </c>
+      <c r="J8">
+        <v>1.00064817868472</v>
+      </c>
+      <c r="K8">
+        <v>1.033126723317438</v>
+      </c>
+      <c r="L8">
+        <v>1.001212489949779</v>
+      </c>
+      <c r="M8">
+        <v>0.9964789233214655</v>
+      </c>
+      <c r="N8">
+        <v>1.002069213874403</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>0.9783205764612979</v>
+      </c>
+      <c r="D9">
+        <v>1.029582245551908</v>
+      </c>
+      <c r="E9">
+        <v>0.9830817382785806</v>
+      </c>
+      <c r="F9">
+        <v>0.9746875594148453</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.02956208100376</v>
+      </c>
+      <c r="J9">
+        <v>0.9845060212834819</v>
+      </c>
+      <c r="K9">
+        <v>1.032765901988229</v>
+      </c>
+      <c r="L9">
+        <v>0.9864271902042485</v>
+      </c>
+      <c r="M9">
+        <v>0.9780640366811924</v>
+      </c>
+      <c r="N9">
+        <v>0.9859041327581235</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>0.966159120324894</v>
+      </c>
+      <c r="D10">
+        <v>1.029048220613477</v>
+      </c>
+      <c r="E10">
+        <v>0.9721943220809653</v>
+      </c>
+      <c r="F10">
+        <v>0.9612490314044084</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.029558927936093</v>
+      </c>
+      <c r="J10">
+        <v>0.9730138585618151</v>
+      </c>
+      <c r="K10">
+        <v>1.032518842347417</v>
+      </c>
+      <c r="L10">
+        <v>0.9758845337612366</v>
+      </c>
+      <c r="M10">
+        <v>0.9649848447286592</v>
+      </c>
+      <c r="N10">
+        <v>0.9743956498472226</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>0.9606831415645073</v>
+      </c>
+      <c r="D11">
+        <v>1.028816400681361</v>
+      </c>
+      <c r="E11">
+        <v>0.9672875309838622</v>
+      </c>
+      <c r="F11">
+        <v>0.9552027903459976</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.029555369739793</v>
+      </c>
+      <c r="J11">
+        <v>0.9678348320980014</v>
+      </c>
+      <c r="K11">
+        <v>1.032410340936441</v>
+      </c>
+      <c r="L11">
+        <v>0.97112956630897</v>
+      </c>
+      <c r="M11">
+        <v>0.9590977607796322</v>
+      </c>
+      <c r="N11">
+        <v>0.9692092685717875</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>0.9586145506910082</v>
+      </c>
+      <c r="D12">
+        <v>1.028730207336771</v>
+      </c>
+      <c r="E12">
+        <v>0.9654332964499098</v>
+      </c>
+      <c r="F12">
+        <v>0.9529194695819285</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.029553719719501</v>
+      </c>
+      <c r="J12">
+        <v>0.9658777490661349</v>
+      </c>
+      <c r="K12">
+        <v>1.032369811708945</v>
+      </c>
+      <c r="L12">
+        <v>0.9693321597485967</v>
+      </c>
+      <c r="M12">
+        <v>0.9568741640828985</v>
+      </c>
+      <c r="N12">
+        <v>0.9672494062575352</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>0.9590598874230633</v>
+      </c>
+      <c r="D13">
+        <v>1.028748699911505</v>
+      </c>
+      <c r="E13">
+        <v>0.9658325149312958</v>
+      </c>
+      <c r="F13">
+        <v>0.9534110037213531</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.029554088495152</v>
+      </c>
+      <c r="J13">
+        <v>0.9662991100629652</v>
+      </c>
+      <c r="K13">
+        <v>1.032378515607504</v>
+      </c>
+      <c r="L13">
+        <v>0.9697191678918762</v>
+      </c>
+      <c r="M13">
+        <v>0.9573528585443665</v>
+      </c>
+      <c r="N13">
+        <v>0.9676713656353118</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>0.9605128752060893</v>
+      </c>
+      <c r="D14">
+        <v>1.028809277633767</v>
+      </c>
+      <c r="E14">
+        <v>0.9671349216314452</v>
+      </c>
+      <c r="F14">
+        <v>0.9550148356480366</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.029555240040404</v>
+      </c>
+      <c r="J14">
+        <v>0.9676737575683367</v>
+      </c>
+      <c r="K14">
+        <v>1.032406995397462</v>
+      </c>
+      <c r="L14">
+        <v>0.9709816451978783</v>
+      </c>
+      <c r="M14">
+        <v>0.9589147300863431</v>
+      </c>
+      <c r="N14">
+        <v>0.9690479652978151</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>0.9614034314727273</v>
+      </c>
+      <c r="D15">
+        <v>1.028846590368057</v>
+      </c>
+      <c r="E15">
+        <v>0.9679330985122259</v>
+      </c>
+      <c r="F15">
+        <v>0.9559979364329391</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.029555906069241</v>
+      </c>
+      <c r="J15">
+        <v>0.9685162099568203</v>
+      </c>
+      <c r="K15">
+        <v>1.032424512714591</v>
+      </c>
+      <c r="L15">
+        <v>0.9717552794304384</v>
+      </c>
+      <c r="M15">
+        <v>0.9598720602737167</v>
+      </c>
+      <c r="N15">
+        <v>0.969891614065321</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>0.9665178694539471</v>
+      </c>
+      <c r="D16">
+        <v>1.029063593663636</v>
+      </c>
+      <c r="E16">
+        <v>0.9725156901775738</v>
+      </c>
+      <c r="F16">
+        <v>0.9616452370859042</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.029559117975007</v>
+      </c>
+      <c r="J16">
+        <v>0.9733530614536017</v>
+      </c>
+      <c r="K16">
+        <v>1.032526011298702</v>
+      </c>
+      <c r="L16">
+        <v>0.976195883662468</v>
+      </c>
+      <c r="M16">
+        <v>0.9653705685715845</v>
+      </c>
+      <c r="N16">
+        <v>0.9747353344460225</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>0.9696677839963934</v>
+      </c>
+      <c r="D17">
+        <v>1.029199559676678</v>
+      </c>
+      <c r="E17">
+        <v>0.975336883953685</v>
+      </c>
+      <c r="F17">
+        <v>0.9651245671890961</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.029560546404203</v>
+      </c>
+      <c r="J17">
+        <v>0.9763308548856949</v>
+      </c>
+      <c r="K17">
+        <v>1.032589272239752</v>
+      </c>
+      <c r="L17">
+        <v>0.9789287275559527</v>
+      </c>
+      <c r="M17">
+        <v>0.9687575661130877</v>
+      </c>
+      <c r="N17">
+        <v>0.9777173566863469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>0.9714850378471849</v>
+      </c>
+      <c r="D18">
+        <v>1.02927880986996</v>
+      </c>
+      <c r="E18">
+        <v>0.9769640686024228</v>
+      </c>
+      <c r="F18">
+        <v>0.967132319282564</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.029561167926096</v>
+      </c>
+      <c r="J18">
+        <v>0.9780483928416045</v>
+      </c>
+      <c r="K18">
+        <v>1.032626024211041</v>
+      </c>
+      <c r="L18">
+        <v>0.9805046204782536</v>
+      </c>
+      <c r="M18">
+        <v>0.9707118006498168</v>
+      </c>
+      <c r="N18">
+        <v>0.9794373337431582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>0.9721013613780306</v>
+      </c>
+      <c r="D19">
+        <v>1.029305822478734</v>
+      </c>
+      <c r="E19">
+        <v>0.9775158578081515</v>
+      </c>
+      <c r="F19">
+        <v>0.9678133277376976</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.029561343914426</v>
+      </c>
+      <c r="J19">
+        <v>0.978630827294583</v>
+      </c>
+      <c r="K19">
+        <v>1.032638530682611</v>
+      </c>
+      <c r="L19">
+        <v>0.981038959968239</v>
+      </c>
+      <c r="M19">
+        <v>0.9713746164040274</v>
+      </c>
+      <c r="N19">
+        <v>0.9800205953198662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>0.9693319212360824</v>
+      </c>
+      <c r="D20">
+        <v>1.029184977633816</v>
+      </c>
+      <c r="E20">
+        <v>0.9750361152217983</v>
+      </c>
+      <c r="F20">
+        <v>0.9647535334624762</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.029560415031907</v>
+      </c>
+      <c r="J20">
+        <v>0.9760133879045572</v>
+      </c>
+      <c r="K20">
+        <v>1.032582500137902</v>
+      </c>
+      <c r="L20">
+        <v>0.978637412617706</v>
+      </c>
+      <c r="M20">
+        <v>0.9683964033044213</v>
+      </c>
+      <c r="N20">
+        <v>0.9773994388656819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>0.9600859869466861</v>
+      </c>
+      <c r="D21">
+        <v>1.02879144133297</v>
+      </c>
+      <c r="E21">
+        <v>0.9667522921095373</v>
+      </c>
+      <c r="F21">
+        <v>0.9545436105721294</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.029554909994162</v>
+      </c>
+      <c r="J21">
+        <v>0.9672699041061134</v>
+      </c>
+      <c r="K21">
+        <v>1.032398615060049</v>
+      </c>
+      <c r="L21">
+        <v>0.9706107614573473</v>
+      </c>
+      <c r="M21">
+        <v>0.9584558439532331</v>
+      </c>
+      <c r="N21">
+        <v>0.9686435383173526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>0.9540709107520832</v>
+      </c>
+      <c r="D22">
+        <v>1.0285435183423</v>
+      </c>
+      <c r="E22">
+        <v>0.9613592925291401</v>
+      </c>
+      <c r="F22">
+        <v>0.9479054187673437</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.029549549582982</v>
+      </c>
+      <c r="J22">
+        <v>0.9615777981805639</v>
+      </c>
+      <c r="K22">
+        <v>1.032281686918611</v>
+      </c>
+      <c r="L22">
+        <v>0.9653819973732639</v>
+      </c>
+      <c r="M22">
+        <v>0.9519905601641876</v>
+      </c>
+      <c r="N22">
+        <v>0.9629433489484955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>0.9572798556983286</v>
+      </c>
+      <c r="D23">
+        <v>1.028674992704237</v>
+      </c>
+      <c r="E23">
+        <v>0.9642367247431528</v>
+      </c>
+      <c r="F23">
+        <v>0.9514464178477567</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.029552570889732</v>
+      </c>
+      <c r="J23">
+        <v>0.9646148121753957</v>
+      </c>
+      <c r="K23">
+        <v>1.032343796520178</v>
+      </c>
+      <c r="L23">
+        <v>0.9681721051668799</v>
+      </c>
+      <c r="M23">
+        <v>0.9554395349172436</v>
+      </c>
+      <c r="N23">
+        <v>0.9659846758515501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>0.9694837448603313</v>
+      </c>
+      <c r="D24">
+        <v>1.029191566806252</v>
+      </c>
+      <c r="E24">
+        <v>0.9751720762327452</v>
+      </c>
+      <c r="F24">
+        <v>0.9649212543907153</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.029560475047558</v>
+      </c>
+      <c r="J24">
+        <v>0.9761568971781776</v>
+      </c>
+      <c r="K24">
+        <v>1.032585560613934</v>
+      </c>
+      <c r="L24">
+        <v>0.9787691011244772</v>
+      </c>
+      <c r="M24">
+        <v>0.968559662948978</v>
+      </c>
+      <c r="N24">
+        <v>0.9775431519389318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>0.9828674098098618</v>
+      </c>
+      <c r="D25">
+        <v>1.029788797171083</v>
+      </c>
+      <c r="E25">
+        <v>0.9871483364053398</v>
+      </c>
+      <c r="F25">
+        <v>0.9797160724965627</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.029561340424494</v>
+      </c>
+      <c r="J25">
+        <v>0.988798886372216</v>
+      </c>
+      <c r="K25">
+        <v>1.032860338570589</v>
+      </c>
+      <c r="L25">
+        <v>0.9903620470570647</v>
+      </c>
+      <c r="M25">
+        <v>0.982955958318781</v>
+      </c>
+      <c r="N25">
+        <v>0.9902030942076822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,164 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9942290428983016</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.032094966939503</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.0012855230233</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.014122273982217</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.0439324701151</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.01658374312454</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.043124567800718</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.012726977474444</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.025388307585107</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008998782316026</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028665433968533</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041563087091307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9990647900167798</v>
+      </c>
+      <c r="D3">
+        <v>1.033991592104319</v>
+      </c>
+      <c r="E3">
+        <v>1.005181583295552</v>
+      </c>
+      <c r="F3">
+        <v>1.017625626010262</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.044876191223645</v>
+      </c>
+      <c r="J3">
+        <v>1.019580982307948</v>
+      </c>
+      <c r="K3">
+        <v>1.044207260676963</v>
+      </c>
+      <c r="L3">
+        <v>1.015748591343502</v>
+      </c>
+      <c r="M3">
+        <v>1.028037843368582</v>
+      </c>
+      <c r="N3">
+        <v>1.010053871436187</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030762395903551</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042325982022124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.002121397869242</v>
+      </c>
+      <c r="D4">
+        <v>1.035200606942322</v>
+      </c>
+      <c r="E4">
+        <v>1.007649864954178</v>
+      </c>
+      <c r="F4">
+        <v>1.019850866911129</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.045464351483375</v>
+      </c>
+      <c r="J4">
+        <v>1.021470993303739</v>
+      </c>
+      <c r="K4">
+        <v>1.044891972464119</v>
+      </c>
+      <c r="L4">
+        <v>1.017656831371754</v>
+      </c>
+      <c r="M4">
+        <v>1.029715470453361</v>
+      </c>
+      <c r="N4">
+        <v>1.010718591975533</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.032090142254665</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04281101892813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.003390817077993</v>
+      </c>
+      <c r="D5">
+        <v>1.035710545667281</v>
+      </c>
+      <c r="E5">
+        <v>1.008676509052653</v>
+      </c>
+      <c r="F5">
+        <v>1.02077722125945</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.045708429104884</v>
+      </c>
+      <c r="J5">
+        <v>1.02225519654708</v>
+      </c>
+      <c r="K5">
+        <v>1.045181975826343</v>
+      </c>
+      <c r="L5">
+        <v>1.018449329748391</v>
+      </c>
+      <c r="M5">
+        <v>1.030412707266719</v>
+      </c>
+      <c r="N5">
+        <v>1.010994664787474</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032641964764708</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0430232147919</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.003604353355644</v>
+      </c>
+      <c r="D6">
+        <v>1.035803114812644</v>
+      </c>
+      <c r="E6">
+        <v>1.008849594272776</v>
+      </c>
+      <c r="F6">
+        <v>1.020932792002019</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.045751631358864</v>
+      </c>
+      <c r="J6">
+        <v>1.022387530151644</v>
+      </c>
+      <c r="K6">
+        <v>1.045237571297199</v>
+      </c>
+      <c r="L6">
+        <v>1.018583159434354</v>
+      </c>
+      <c r="M6">
+        <v>1.03052986477798</v>
+      </c>
+      <c r="N6">
+        <v>1.011041756543211</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032734688099061</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043071234078562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.002142053322966</v>
+      </c>
+      <c r="D7">
+        <v>1.035226697247466</v>
+      </c>
+      <c r="E7">
+        <v>1.00766741572876</v>
+      </c>
+      <c r="F7">
+        <v>1.019864850717805</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.045474382463849</v>
+      </c>
+      <c r="J7">
+        <v>1.02148505273194</v>
+      </c>
+      <c r="K7">
+        <v>1.044914908518372</v>
+      </c>
+      <c r="L7">
+        <v>1.01767120361369</v>
+      </c>
+      <c r="M7">
+        <v>1.029726370490173</v>
+      </c>
+      <c r="N7">
+        <v>1.010724945612869</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.032098769005138</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.042847265511203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9958831515490936</v>
+      </c>
+      <c r="D8">
+        <v>1.032763462780235</v>
+      </c>
+      <c r="E8">
+        <v>1.002618110742569</v>
+      </c>
+      <c r="F8">
+        <v>1.01531701794287</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.044264366193193</v>
+      </c>
+      <c r="J8">
+        <v>1.017611452573837</v>
+      </c>
+      <c r="K8">
+        <v>1.043517192998627</v>
+      </c>
+      <c r="L8">
+        <v>1.013762734463065</v>
+      </c>
+      <c r="M8">
+        <v>1.026293431885115</v>
+      </c>
+      <c r="N8">
+        <v>1.009362528213335</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029381790813861</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.04186351392268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9842625991066754</v>
+      </c>
+      <c r="D9">
+        <v>1.028247372684389</v>
+      </c>
+      <c r="E9">
+        <v>0.993289536914299</v>
+      </c>
+      <c r="F9">
+        <v>1.006964734001324</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.041943621188382</v>
+      </c>
+      <c r="J9">
+        <v>1.010383592828044</v>
+      </c>
+      <c r="K9">
+        <v>1.040898196977897</v>
+      </c>
+      <c r="L9">
+        <v>1.006492433101652</v>
+      </c>
+      <c r="M9">
+        <v>1.019945814941198</v>
+      </c>
+      <c r="N9">
+        <v>1.006813500754727</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.02435798015873</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040008571346506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9762676817126312</v>
+      </c>
+      <c r="D10">
+        <v>1.025180945441062</v>
+      </c>
+      <c r="E10">
+        <v>0.9869258460373076</v>
+      </c>
+      <c r="F10">
+        <v>1.001514263400637</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.040330844044437</v>
+      </c>
+      <c r="J10">
+        <v>1.00545559261704</v>
+      </c>
+      <c r="K10">
+        <v>1.039109962242325</v>
+      </c>
+      <c r="L10">
+        <v>1.001535240062511</v>
+      </c>
+      <c r="M10">
+        <v>1.015856231072502</v>
+      </c>
+      <c r="N10">
+        <v>1.005084699552647</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.021173807954126</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.038760930835821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9742462360996753</v>
+      </c>
+      <c r="D11">
+        <v>1.024210704377012</v>
+      </c>
+      <c r="E11">
+        <v>0.9854832201155699</v>
+      </c>
+      <c r="F11">
+        <v>1.001993346290158</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.040102245985416</v>
+      </c>
+      <c r="J11">
+        <v>1.00473108471609</v>
+      </c>
+      <c r="K11">
+        <v>1.03869004298988</v>
+      </c>
+      <c r="L11">
+        <v>1.000684194371806</v>
+      </c>
+      <c r="M11">
+        <v>1.016877768671947</v>
+      </c>
+      <c r="N11">
+        <v>1.004929315557015</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.022426699916025</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038496726465499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9740459341901847</v>
+      </c>
+      <c r="D12">
+        <v>1.023969307336771</v>
+      </c>
+      <c r="E12">
+        <v>0.9854473459736881</v>
+      </c>
+      <c r="F12">
+        <v>1.003152158534931</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.040194727892191</v>
+      </c>
+      <c r="J12">
+        <v>1.004990832955285</v>
+      </c>
+      <c r="K12">
+        <v>1.038651263284139</v>
+      </c>
+      <c r="L12">
+        <v>1.000858765516801</v>
+      </c>
+      <c r="M12">
+        <v>1.018219216310265</v>
+      </c>
+      <c r="N12">
+        <v>1.00510200446225</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.023819305863705</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038469308203269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9752278970549599</v>
+      </c>
+      <c r="D13">
+        <v>1.024290206452926</v>
+      </c>
+      <c r="E13">
+        <v>0.9864847468611712</v>
+      </c>
+      <c r="F13">
+        <v>1.004929014004614</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.040547940778867</v>
+      </c>
+      <c r="J13">
+        <v>1.006022350228071</v>
+      </c>
+      <c r="K13">
+        <v>1.038923861896881</v>
+      </c>
+      <c r="L13">
+        <v>1.001830618964057</v>
+      </c>
+      <c r="M13">
+        <v>1.019918668471883</v>
+      </c>
+      <c r="N13">
+        <v>1.005538997518185</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.025443281313628</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038659561942902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9766588536600176</v>
+      </c>
+      <c r="D14">
+        <v>1.024769217124026</v>
+      </c>
+      <c r="E14">
+        <v>0.9876777972829269</v>
+      </c>
+      <c r="F14">
+        <v>1.006419407232713</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.040907820997215</v>
+      </c>
+      <c r="J14">
+        <v>1.007073049382904</v>
+      </c>
+      <c r="K14">
+        <v>1.039255043076539</v>
+      </c>
+      <c r="L14">
+        <v>1.002853174143234</v>
+      </c>
+      <c r="M14">
+        <v>1.021238081298279</v>
+      </c>
+      <c r="N14">
+        <v>1.005957269842092</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.026661389152038</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038895133433482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9773239256143345</v>
+      </c>
+      <c r="D15">
+        <v>1.025016740558813</v>
+      </c>
+      <c r="E15">
+        <v>0.9882166328453089</v>
+      </c>
+      <c r="F15">
+        <v>1.006968275369637</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.041058748173729</v>
+      </c>
+      <c r="J15">
+        <v>1.007514451437349</v>
+      </c>
+      <c r="K15">
+        <v>1.039412414871704</v>
+      </c>
+      <c r="L15">
+        <v>1.003291055807752</v>
+      </c>
+      <c r="M15">
+        <v>1.021688761779009</v>
+      </c>
+      <c r="N15">
+        <v>1.006123140857974</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027055485499906</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039012241957953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9804454129063984</v>
+      </c>
+      <c r="D16">
+        <v>1.026243730069642</v>
+      </c>
+      <c r="E16">
+        <v>0.9906728157400062</v>
+      </c>
+      <c r="F16">
+        <v>1.008958885973213</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.041674769593577</v>
+      </c>
+      <c r="J16">
+        <v>1.009377593133029</v>
+      </c>
+      <c r="K16">
+        <v>1.040119443718144</v>
+      </c>
+      <c r="L16">
+        <v>1.005175362801089</v>
+      </c>
+      <c r="M16">
+        <v>1.023132039079018</v>
+      </c>
+      <c r="N16">
+        <v>1.006761493979305</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028157163710262</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039515286943629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9821036779594169</v>
+      </c>
+      <c r="D17">
+        <v>1.026940082680059</v>
+      </c>
+      <c r="E17">
+        <v>0.9919452121213059</v>
+      </c>
+      <c r="F17">
+        <v>1.009713892142791</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.0419607472385</v>
+      </c>
+      <c r="J17">
+        <v>1.010267392373241</v>
+      </c>
+      <c r="K17">
+        <v>1.040491686344893</v>
+      </c>
+      <c r="L17">
+        <v>1.006095960460073</v>
+      </c>
+      <c r="M17">
+        <v>1.023553718690259</v>
+      </c>
+      <c r="N17">
+        <v>1.007035706511638</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028360167580589</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.03978105284535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9825999639834248</v>
+      </c>
+      <c r="D18">
+        <v>1.027220674995646</v>
+      </c>
+      <c r="E18">
+        <v>0.9922613873343387</v>
+      </c>
+      <c r="F18">
+        <v>1.009296964280299</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.041968050209501</v>
+      </c>
+      <c r="J18">
+        <v>1.010336832338809</v>
+      </c>
+      <c r="K18">
+        <v>1.040585523135017</v>
+      </c>
+      <c r="L18">
+        <v>1.006215049825089</v>
+      </c>
+      <c r="M18">
+        <v>1.022957126728217</v>
+      </c>
+      <c r="N18">
+        <v>1.006997075144285</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.027648115287963</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039835816773099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9820055881064448</v>
+      </c>
+      <c r="D19">
+        <v>1.02714534678492</v>
+      </c>
+      <c r="E19">
+        <v>0.9916805341899237</v>
+      </c>
+      <c r="F19">
+        <v>1.007704696827387</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.04172479475795</v>
+      </c>
+      <c r="J19">
+        <v>1.009627356397555</v>
+      </c>
+      <c r="K19">
+        <v>1.040449285988763</v>
+      </c>
+      <c r="L19">
+        <v>1.005579110637902</v>
+      </c>
+      <c r="M19">
+        <v>1.02132791218771</v>
+      </c>
+      <c r="N19">
+        <v>1.00667114043864</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026029757010472</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039745859002976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9783621927905073</v>
+      </c>
+      <c r="D20">
+        <v>1.026021919401725</v>
+      </c>
+      <c r="E20">
+        <v>0.988593573410305</v>
+      </c>
+      <c r="F20">
+        <v>1.002945946720915</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.040771185845799</v>
+      </c>
+      <c r="J20">
+        <v>1.00675347316516</v>
+      </c>
+      <c r="K20">
+        <v>1.039622133450816</v>
+      </c>
+      <c r="L20">
+        <v>1.002840000832964</v>
+      </c>
+      <c r="M20">
+        <v>1.0169371922485</v>
+      </c>
+      <c r="N20">
+        <v>1.005544916178515</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022018519983506</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039164935244476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9720233435445079</v>
+      </c>
+      <c r="D21">
+        <v>1.023647274800695</v>
+      </c>
+      <c r="E21">
+        <v>0.9835319105380008</v>
+      </c>
+      <c r="F21">
+        <v>0.9982829127068332</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.039441517821698</v>
+      </c>
+      <c r="J21">
+        <v>1.002739182994032</v>
+      </c>
+      <c r="K21">
+        <v>1.03819407689704</v>
+      </c>
+      <c r="L21">
+        <v>0.9988321399319756</v>
+      </c>
+      <c r="M21">
+        <v>1.013296889018189</v>
+      </c>
+      <c r="N21">
+        <v>1.004117893672934</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.019095659163743</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.0381584590018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9680203715410651</v>
+      </c>
+      <c r="D22">
+        <v>1.022132809170084</v>
+      </c>
+      <c r="E22">
+        <v>0.9803526617946592</v>
+      </c>
+      <c r="F22">
+        <v>0.9954701330479144</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.038599487642106</v>
+      </c>
+      <c r="J22">
+        <v>1.000231303186697</v>
+      </c>
+      <c r="K22">
+        <v>1.037278202367513</v>
+      </c>
+      <c r="L22">
+        <v>0.9963236492680692</v>
+      </c>
+      <c r="M22">
+        <v>1.011131864789637</v>
+      </c>
+      <c r="N22">
+        <v>1.003229504346185</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.017382132499732</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037497452574514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9701499326189348</v>
+      </c>
+      <c r="D23">
+        <v>1.022921457059275</v>
+      </c>
+      <c r="E23">
+        <v>0.9820421469034616</v>
+      </c>
+      <c r="F23">
+        <v>0.9969658525824449</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.039043153033969</v>
+      </c>
+      <c r="J23">
+        <v>1.001564741360231</v>
+      </c>
+      <c r="K23">
+        <v>1.037749487527577</v>
+      </c>
+      <c r="L23">
+        <v>0.9976566663728373</v>
+      </c>
+      <c r="M23">
+        <v>1.012283445749922</v>
+      </c>
+      <c r="N23">
+        <v>1.003700260081395</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.018293561502307</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037821077744931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9783104899575559</v>
+      </c>
+      <c r="D24">
+        <v>1.025998952981567</v>
+      </c>
+      <c r="E24">
+        <v>0.9885361676045846</v>
+      </c>
+      <c r="F24">
+        <v>1.002727932293217</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.040735735687805</v>
+      </c>
+      <c r="J24">
+        <v>1.006669804119993</v>
+      </c>
+      <c r="K24">
+        <v>1.039584379313592</v>
+      </c>
+      <c r="L24">
+        <v>1.002767636966882</v>
+      </c>
+      <c r="M24">
+        <v>1.01670731114458</v>
+      </c>
+      <c r="N24">
+        <v>1.005504489917128</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.021794857554363</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039110956915243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9873463339691323</v>
+      </c>
+      <c r="D25">
+        <v>1.029462555239441</v>
+      </c>
+      <c r="E25">
+        <v>0.9957606535772301</v>
+      </c>
+      <c r="F25">
+        <v>1.00916869561237</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.042575706607185</v>
+      </c>
+      <c r="J25">
+        <v>1.012307179548076</v>
+      </c>
+      <c r="K25">
+        <v>1.041620093029552</v>
+      </c>
+      <c r="L25">
+        <v>1.008425138359761</v>
+      </c>
+      <c r="M25">
+        <v>1.021626327412762</v>
+      </c>
+      <c r="N25">
+        <v>1.007494857937084</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.025688022489941</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040547451887681</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9942290428983016</v>
+        <v>0.9948092263435351</v>
       </c>
       <c r="D2">
-        <v>1.032094966939503</v>
+        <v>1.030042757373974</v>
       </c>
       <c r="E2">
-        <v>1.0012855230233</v>
+        <v>1.001789834216068</v>
       </c>
       <c r="F2">
-        <v>1.014122273982217</v>
+        <v>1.014373611711082</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.0439324701151</v>
+        <v>1.043389664475124</v>
       </c>
       <c r="J2">
-        <v>1.01658374312454</v>
+        <v>1.017146308817398</v>
       </c>
       <c r="K2">
-        <v>1.043124567800718</v>
+        <v>1.041098833078945</v>
       </c>
       <c r="L2">
-        <v>1.012726977474444</v>
+        <v>1.013224289998034</v>
       </c>
       <c r="M2">
-        <v>1.025388307585107</v>
+        <v>1.025636266356353</v>
       </c>
       <c r="N2">
-        <v>1.008998782316026</v>
+        <v>1.011392015064417</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028665433968533</v>
+        <v>1.028861679975846</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041563087091307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040139469924841</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023010456841874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9990647900167798</v>
+        <v>0.999510828056891</v>
       </c>
       <c r="D3">
-        <v>1.033991592104319</v>
+        <v>1.031758599745753</v>
       </c>
       <c r="E3">
-        <v>1.005181583295552</v>
+        <v>1.005569288969374</v>
       </c>
       <c r="F3">
-        <v>1.017625626010262</v>
+        <v>1.017818591618884</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044876191223645</v>
+        <v>1.044247061705725</v>
       </c>
       <c r="J3">
-        <v>1.019580982307948</v>
+        <v>1.020014837281578</v>
       </c>
       <c r="K3">
-        <v>1.044207260676963</v>
+        <v>1.042000630543976</v>
       </c>
       <c r="L3">
-        <v>1.015748591343502</v>
+        <v>1.01613140223137</v>
       </c>
       <c r="M3">
-        <v>1.028037843368582</v>
+        <v>1.028228445754417</v>
       </c>
       <c r="N3">
-        <v>1.010053871436187</v>
+        <v>1.012196331868332</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030762395903551</v>
+        <v>1.030913246970708</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042325982022124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040774183215589</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023152269917039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002121397869242</v>
+        <v>1.002483888629044</v>
       </c>
       <c r="D4">
-        <v>1.035200606942322</v>
+        <v>1.032853404793515</v>
       </c>
       <c r="E4">
-        <v>1.007649864954178</v>
+        <v>1.007964841230422</v>
       </c>
       <c r="F4">
-        <v>1.019850866911129</v>
+        <v>1.020007553283294</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045464351483375</v>
+        <v>1.044780716330107</v>
       </c>
       <c r="J4">
-        <v>1.021470993303739</v>
+        <v>1.021824268992383</v>
       </c>
       <c r="K4">
-        <v>1.044891972464119</v>
+        <v>1.042570850583415</v>
       </c>
       <c r="L4">
-        <v>1.017656831371754</v>
+        <v>1.017968078787342</v>
       </c>
       <c r="M4">
-        <v>1.029715470453361</v>
+        <v>1.029870355940514</v>
       </c>
       <c r="N4">
-        <v>1.010718591975533</v>
+        <v>1.012703268679228</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.032090142254665</v>
+        <v>1.032212725174665</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04281101892813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.041178351224424</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023239384238827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003390817077993</v>
+        <v>1.003718764902445</v>
       </c>
       <c r="D5">
-        <v>1.035710545667281</v>
+        <v>1.033315587715269</v>
       </c>
       <c r="E5">
-        <v>1.008676509052653</v>
+        <v>1.008961378902772</v>
       </c>
       <c r="F5">
-        <v>1.02077722125945</v>
+        <v>1.020918925558026</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045708429104884</v>
+        <v>1.045002028273716</v>
       </c>
       <c r="J5">
-        <v>1.02225519654708</v>
+        <v>1.02257506220027</v>
       </c>
       <c r="K5">
-        <v>1.045181975826343</v>
+        <v>1.042812936897666</v>
       </c>
       <c r="L5">
-        <v>1.018449329748391</v>
+        <v>1.018730919775967</v>
       </c>
       <c r="M5">
-        <v>1.030412707266719</v>
+        <v>1.030552827061604</v>
       </c>
       <c r="N5">
-        <v>1.010994664787474</v>
+        <v>1.012913816403399</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032641964764708</v>
+        <v>1.032752861405327</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0430232147919</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04135738494366</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023276525974748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003604353355644</v>
+        <v>1.003926357068839</v>
       </c>
       <c r="D6">
-        <v>1.035803114812644</v>
+        <v>1.033399710403797</v>
       </c>
       <c r="E6">
-        <v>1.008849594272776</v>
+        <v>1.009129264487802</v>
       </c>
       <c r="F6">
-        <v>1.020932792002019</v>
+        <v>1.021071919513989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045751631358864</v>
+        <v>1.045041229725001</v>
       </c>
       <c r="J6">
-        <v>1.022387530151644</v>
+        <v>1.022701639865091</v>
       </c>
       <c r="K6">
-        <v>1.045237571297199</v>
+        <v>1.042860060773885</v>
       </c>
       <c r="L6">
-        <v>1.018583159434354</v>
+        <v>1.018859624881815</v>
       </c>
       <c r="M6">
-        <v>1.03052986477798</v>
+        <v>1.030667443845912</v>
       </c>
       <c r="N6">
-        <v>1.011041756543211</v>
+        <v>1.012949684649073</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032734688099061</v>
+        <v>1.032843573888312</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043071234078562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.041400291424854</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023284658759549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002142053322966</v>
+        <v>1.002517624074008</v>
       </c>
       <c r="D7">
-        <v>1.035226697247466</v>
+        <v>1.032880659110077</v>
       </c>
       <c r="E7">
-        <v>1.00766741572876</v>
+        <v>1.007994439683099</v>
       </c>
       <c r="F7">
-        <v>1.019864850717805</v>
+        <v>1.020027190119924</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045474382463849</v>
+        <v>1.044794654753255</v>
       </c>
       <c r="J7">
-        <v>1.02148505273194</v>
+        <v>1.021851080091818</v>
       </c>
       <c r="K7">
-        <v>1.044914908518372</v>
+        <v>1.042594927379658</v>
       </c>
       <c r="L7">
-        <v>1.01767120361369</v>
+        <v>1.017994357603383</v>
       </c>
       <c r="M7">
-        <v>1.029726370490173</v>
+        <v>1.029886844733551</v>
       </c>
       <c r="N7">
-        <v>1.010724945612869</v>
+        <v>1.012738514636724</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.032098769005138</v>
+        <v>1.032225775101026</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.042847265511203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.041217421881325</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023246029702942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958831515490936</v>
+        <v>0.9964604667021589</v>
       </c>
       <c r="D8">
-        <v>1.032763462780235</v>
+        <v>1.030657637054369</v>
       </c>
       <c r="E8">
-        <v>1.002618110742569</v>
+        <v>1.003122287838724</v>
       </c>
       <c r="F8">
-        <v>1.01531701794287</v>
+        <v>1.015566998913882</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044264366193193</v>
+        <v>1.043706368482864</v>
       </c>
       <c r="J8">
-        <v>1.017611452573837</v>
+        <v>1.018171843894192</v>
       </c>
       <c r="K8">
-        <v>1.043517192998627</v>
+        <v>1.041437746703853</v>
       </c>
       <c r="L8">
-        <v>1.013762734463065</v>
+        <v>1.014260131205751</v>
       </c>
       <c r="M8">
-        <v>1.026293431885115</v>
+        <v>1.026540154488399</v>
       </c>
       <c r="N8">
-        <v>1.009362528213335</v>
+        <v>1.011762467371196</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029381790813861</v>
+        <v>1.029577058258635</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.04186351392268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040404206441035</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023068625214461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9842625991066754</v>
+        <v>0.9851786766917839</v>
       </c>
       <c r="D9">
-        <v>1.028247372684389</v>
+        <v>1.026579537673775</v>
       </c>
       <c r="E9">
-        <v>0.993289536914299</v>
+        <v>0.9940880266027039</v>
       </c>
       <c r="F9">
-        <v>1.006964734001324</v>
+        <v>1.007362657108622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041943621188382</v>
+        <v>1.041596964381578</v>
       </c>
       <c r="J9">
-        <v>1.010383592828044</v>
+        <v>1.011265893534332</v>
       </c>
       <c r="K9">
-        <v>1.040898196977897</v>
+        <v>1.039255612624321</v>
       </c>
       <c r="L9">
-        <v>1.006492433101652</v>
+        <v>1.007277755263184</v>
       </c>
       <c r="M9">
-        <v>1.019945814941198</v>
+        <v>1.020337399185724</v>
       </c>
       <c r="N9">
-        <v>1.006813500754727</v>
+        <v>1.009833240581716</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.02435798015873</v>
+        <v>1.024667899912727</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040008571346506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038857857879196</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02270839636608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9762676817126312</v>
+        <v>0.9774892712668954</v>
       </c>
       <c r="D10">
-        <v>1.025180945441062</v>
+        <v>1.023829142701759</v>
       </c>
       <c r="E10">
-        <v>0.9869258460373076</v>
+        <v>0.9879925415901147</v>
       </c>
       <c r="F10">
-        <v>1.001514263400637</v>
+        <v>1.002045473807734</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040330844044437</v>
+        <v>1.040152612567972</v>
       </c>
       <c r="J10">
-        <v>1.00545559261704</v>
+        <v>1.006625384504235</v>
       </c>
       <c r="K10">
-        <v>1.039109962242325</v>
+        <v>1.037781082879413</v>
       </c>
       <c r="L10">
-        <v>1.001535240062511</v>
+        <v>1.00258203238796</v>
       </c>
       <c r="M10">
-        <v>1.015856231072502</v>
+        <v>1.016377894544223</v>
       </c>
       <c r="N10">
-        <v>1.005084699552647</v>
+        <v>1.008660102317943</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.021173807954126</v>
+        <v>1.021586654120494</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038760930835821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037833706012353</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022458479990519</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9742462360996753</v>
+        <v>0.9756372800195326</v>
       </c>
       <c r="D11">
-        <v>1.024210704377012</v>
+        <v>1.022959965713342</v>
       </c>
       <c r="E11">
-        <v>0.9854832201155699</v>
+        <v>0.9867021544884563</v>
       </c>
       <c r="F11">
-        <v>1.001993346290158</v>
+        <v>1.002593545131373</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040102245985416</v>
+        <v>1.040000323429658</v>
       </c>
       <c r="J11">
-        <v>1.00473108471609</v>
+        <v>1.006059911745579</v>
       </c>
       <c r="K11">
-        <v>1.03869004298988</v>
+        <v>1.03746150218182</v>
       </c>
       <c r="L11">
-        <v>1.000684194371806</v>
+        <v>1.001879282732591</v>
       </c>
       <c r="M11">
-        <v>1.016877768671947</v>
+        <v>1.017466716172688</v>
       </c>
       <c r="N11">
-        <v>1.004929315557015</v>
+        <v>1.008816975929865</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.022426699916025</v>
+        <v>1.022892550907197</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038496726465499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037643675662943</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022438842677799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9740459341901847</v>
+        <v>0.9754811643294394</v>
       </c>
       <c r="D12">
-        <v>1.023969307336771</v>
+        <v>1.022735012318277</v>
       </c>
       <c r="E12">
-        <v>0.9854473459736881</v>
+        <v>0.9867054483333504</v>
       </c>
       <c r="F12">
-        <v>1.003152158534931</v>
+        <v>1.003767886654643</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040194727892191</v>
+        <v>1.040110807598878</v>
       </c>
       <c r="J12">
-        <v>1.004990832955285</v>
+        <v>1.006360715964665</v>
       </c>
       <c r="K12">
-        <v>1.038651263284139</v>
+        <v>1.037439233378212</v>
       </c>
       <c r="L12">
-        <v>1.000858765516801</v>
+        <v>1.002091861494897</v>
       </c>
       <c r="M12">
-        <v>1.018219216310265</v>
+        <v>1.018823254179626</v>
       </c>
       <c r="N12">
-        <v>1.00510200446225</v>
+        <v>1.009068790545181</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.023819305863705</v>
+        <v>1.024296926275608</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038469308203269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037627931332225</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022458007375478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9752278970549599</v>
+        <v>0.9765927929157353</v>
       </c>
       <c r="D13">
-        <v>1.024290206452926</v>
+        <v>1.023002845433026</v>
       </c>
       <c r="E13">
-        <v>0.9864847468611712</v>
+        <v>0.9876785593834326</v>
       </c>
       <c r="F13">
-        <v>1.004929014004614</v>
+        <v>1.005511904271614</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.040547940778867</v>
+        <v>1.040431004907058</v>
       </c>
       <c r="J13">
-        <v>1.006022350228071</v>
+        <v>1.007325538650565</v>
       </c>
       <c r="K13">
-        <v>1.038923861896881</v>
+        <v>1.037659628421563</v>
       </c>
       <c r="L13">
-        <v>1.001830618964057</v>
+        <v>1.003000846267529</v>
       </c>
       <c r="M13">
-        <v>1.019918668471883</v>
+        <v>1.020490579520477</v>
       </c>
       <c r="N13">
-        <v>1.005538997518185</v>
+        <v>1.009370348897352</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.025443281313628</v>
+        <v>1.025895382410354</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038659561942902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03778102893891</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022514115874056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9766588536600176</v>
+        <v>0.9779255147084072</v>
       </c>
       <c r="D14">
-        <v>1.024769217124026</v>
+        <v>1.023414517483797</v>
       </c>
       <c r="E14">
-        <v>0.9876777972829269</v>
+        <v>0.9887827242479418</v>
       </c>
       <c r="F14">
-        <v>1.006419407232713</v>
+        <v>1.006958955101538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040907820997215</v>
+        <v>1.040746081473424</v>
       </c>
       <c r="J14">
-        <v>1.007073049382904</v>
+        <v>1.008283365158307</v>
       </c>
       <c r="K14">
-        <v>1.039255043076539</v>
+        <v>1.037924386826987</v>
       </c>
       <c r="L14">
-        <v>1.002853174143234</v>
+        <v>1.003936579545859</v>
       </c>
       <c r="M14">
-        <v>1.021238081298279</v>
+        <v>1.021767616539902</v>
       </c>
       <c r="N14">
-        <v>1.005957269842092</v>
+        <v>1.009600556345936</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.026661389152038</v>
+        <v>1.027079934506422</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038895133433482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037969773764182</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022570360744697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9773239256143345</v>
+        <v>0.9785432817718289</v>
       </c>
       <c r="D15">
-        <v>1.025016740558813</v>
+        <v>1.023630323590733</v>
       </c>
       <c r="E15">
-        <v>0.9882166328453089</v>
+        <v>0.9892790535458584</v>
       </c>
       <c r="F15">
-        <v>1.006968275369637</v>
+        <v>1.007487399915338</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041058748173729</v>
+        <v>1.040875552766148</v>
       </c>
       <c r="J15">
-        <v>1.007514451437349</v>
+        <v>1.008680075333386</v>
       </c>
       <c r="K15">
-        <v>1.039412414871704</v>
+        <v>1.038050422154172</v>
       </c>
       <c r="L15">
-        <v>1.003291055807752</v>
+        <v>1.004332953623799</v>
       </c>
       <c r="M15">
-        <v>1.021688761779009</v>
+        <v>1.02219833203644</v>
       </c>
       <c r="N15">
-        <v>1.006123140857974</v>
+        <v>1.009676136621628</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027055485499906</v>
+        <v>1.027458239839901</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039012241957953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038065299756466</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022594635438872</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9804454129063984</v>
+        <v>0.9814543867727583</v>
       </c>
       <c r="D16">
-        <v>1.026243730069642</v>
+        <v>1.024714323479335</v>
       </c>
       <c r="E16">
-        <v>0.9906728157400062</v>
+        <v>0.9915478769723025</v>
       </c>
       <c r="F16">
-        <v>1.008958885973213</v>
+        <v>1.009388604452029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041674769593577</v>
+        <v>1.041395396704643</v>
       </c>
       <c r="J16">
-        <v>1.009377593133029</v>
+        <v>1.01034442457659</v>
       </c>
       <c r="K16">
-        <v>1.040119443718144</v>
+        <v>1.038615833209564</v>
       </c>
       <c r="L16">
-        <v>1.005175362801089</v>
+        <v>1.006034300582911</v>
       </c>
       <c r="M16">
-        <v>1.023132039079018</v>
+        <v>1.023554202887533</v>
       </c>
       <c r="N16">
-        <v>1.006761493979305</v>
+        <v>1.009914725974313</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028157163710262</v>
+        <v>1.028490843471189</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039515286943629</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038468521731961</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022688464038426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9821036779594169</v>
+        <v>0.9830180218462939</v>
       </c>
       <c r="D17">
-        <v>1.026940082680059</v>
+        <v>1.02533874000975</v>
       </c>
       <c r="E17">
-        <v>0.9919452121213059</v>
+        <v>0.9927366955734021</v>
       </c>
       <c r="F17">
-        <v>1.009713892142791</v>
+        <v>1.010103936616642</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.0419607472385</v>
+        <v>1.041635637386228</v>
       </c>
       <c r="J17">
-        <v>1.010267392373241</v>
+        <v>1.011144805817686</v>
       </c>
       <c r="K17">
-        <v>1.040491686344893</v>
+        <v>1.03891661166948</v>
       </c>
       <c r="L17">
-        <v>1.006095960460073</v>
+        <v>1.006873286741362</v>
       </c>
       <c r="M17">
-        <v>1.023553718690259</v>
+        <v>1.023937096553952</v>
       </c>
       <c r="N17">
-        <v>1.007035706511638</v>
+        <v>1.010011684618986</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028360167580589</v>
+        <v>1.028663221451862</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03978105284535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038684011619853</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022731789415072</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9825999639834248</v>
+        <v>0.9834907675758532</v>
       </c>
       <c r="D18">
-        <v>1.027220674995646</v>
+        <v>1.025599717672974</v>
       </c>
       <c r="E18">
-        <v>0.9922613873343387</v>
+        <v>0.9930325865700282</v>
       </c>
       <c r="F18">
-        <v>1.009296964280299</v>
+        <v>1.009678248505498</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041968050209501</v>
+        <v>1.041630181593976</v>
       </c>
       <c r="J18">
-        <v>1.010336832338809</v>
+        <v>1.011192316910559</v>
       </c>
       <c r="K18">
-        <v>1.040585523135017</v>
+        <v>1.038990727983994</v>
       </c>
       <c r="L18">
-        <v>1.006215049825089</v>
+        <v>1.006972680293745</v>
       </c>
       <c r="M18">
-        <v>1.022957126728217</v>
+        <v>1.023331988085681</v>
       </c>
       <c r="N18">
-        <v>1.006997075144285</v>
+        <v>1.009934081138791</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.027648115287963</v>
+        <v>1.027944499988473</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039835816773099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038723690553883</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022728318392582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9820055881064448</v>
+        <v>0.9829263913993675</v>
       </c>
       <c r="D19">
-        <v>1.02714534678492</v>
+        <v>1.025548492800751</v>
       </c>
       <c r="E19">
-        <v>0.9916805341899237</v>
+        <v>0.9924787624539264</v>
       </c>
       <c r="F19">
-        <v>1.007704696827387</v>
+        <v>1.008100901216545</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04172479475795</v>
+        <v>1.041400055563882</v>
       </c>
       <c r="J19">
-        <v>1.009627356397555</v>
+        <v>1.010511805147912</v>
       </c>
       <c r="K19">
-        <v>1.040449285988763</v>
+        <v>1.03887807187807</v>
       </c>
       <c r="L19">
-        <v>1.005579110637902</v>
+        <v>1.006363349442989</v>
       </c>
       <c r="M19">
-        <v>1.02132791218771</v>
+        <v>1.021717451161438</v>
       </c>
       <c r="N19">
-        <v>1.00667114043864</v>
+        <v>1.009672644998746</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026029757010472</v>
+        <v>1.026337849941942</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039745859002976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038651034158537</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022688321447977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783621927905073</v>
+        <v>0.9794604934499362</v>
       </c>
       <c r="D20">
-        <v>1.026021919401725</v>
+        <v>1.024574661093957</v>
       </c>
       <c r="E20">
-        <v>0.988593573410305</v>
+        <v>0.9895498050059582</v>
       </c>
       <c r="F20">
-        <v>1.002945946720915</v>
+        <v>1.003423391657468</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040771185845799</v>
+        <v>1.040532851911971</v>
       </c>
       <c r="J20">
-        <v>1.00675347316516</v>
+        <v>1.007806801768867</v>
       </c>
       <c r="K20">
-        <v>1.039622133450816</v>
+        <v>1.038198733271851</v>
       </c>
       <c r="L20">
-        <v>1.002840000832964</v>
+        <v>1.003778931595524</v>
       </c>
       <c r="M20">
-        <v>1.0169371922485</v>
+        <v>1.017406310771224</v>
       </c>
       <c r="N20">
-        <v>1.005544916178515</v>
+        <v>1.008890435026006</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022018519983506</v>
+        <v>1.022389786422742</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039164935244476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038175009153546</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022534626249183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9720233435445079</v>
+        <v>0.9735753621446809</v>
       </c>
       <c r="D21">
-        <v>1.023647274800695</v>
+        <v>1.022498817299531</v>
       </c>
       <c r="E21">
-        <v>0.9835319105380008</v>
+        <v>0.9848977232699259</v>
       </c>
       <c r="F21">
-        <v>0.9982829127068332</v>
+        <v>0.9989592192487787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039441517821698</v>
+        <v>1.039410521976017</v>
       </c>
       <c r="J21">
-        <v>1.002739182994032</v>
+        <v>1.004220993295111</v>
       </c>
       <c r="K21">
-        <v>1.03819407689704</v>
+        <v>1.03706612174929</v>
       </c>
       <c r="L21">
-        <v>0.9988321399319756</v>
+        <v>1.000170975093332</v>
       </c>
       <c r="M21">
-        <v>1.013296889018189</v>
+        <v>1.013960336404597</v>
       </c>
       <c r="N21">
-        <v>1.004117893672934</v>
+        <v>1.008314400068527</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.019095659163743</v>
+        <v>1.019620749302863</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.0381584590018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037377745254668</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022336277085554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9680203715410651</v>
+        <v>0.9698648352581505</v>
       </c>
       <c r="D22">
-        <v>1.022132809170084</v>
+        <v>1.021176309443893</v>
       </c>
       <c r="E22">
-        <v>0.9803526617946592</v>
+        <v>0.981983324308694</v>
       </c>
       <c r="F22">
-        <v>0.9954701330479144</v>
+        <v>0.9962746781237199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.038599487642106</v>
+        <v>1.038702945243347</v>
       </c>
       <c r="J22">
-        <v>1.000231303186697</v>
+        <v>1.001987135158037</v>
       </c>
       <c r="K22">
-        <v>1.037278202367513</v>
+        <v>1.03633961702889</v>
       </c>
       <c r="L22">
-        <v>0.9963236492680692</v>
+        <v>0.9979203482533483</v>
       </c>
       <c r="M22">
-        <v>1.011131864789637</v>
+        <v>1.011920297375448</v>
       </c>
       <c r="N22">
-        <v>1.003229504346185</v>
+        <v>1.007958375621105</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.017382132499732</v>
+        <v>1.018006144623777</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037497452574514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.036849318762109</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022206455741597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9701499326189348</v>
+        <v>0.9718137870093027</v>
       </c>
       <c r="D23">
-        <v>1.022921457059275</v>
+        <v>1.021858041657486</v>
       </c>
       <c r="E23">
-        <v>0.9820421469034616</v>
+        <v>0.9835083972995639</v>
       </c>
       <c r="F23">
-        <v>0.9969658525824449</v>
+        <v>0.997691232597254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039043153033969</v>
+        <v>1.039066358061989</v>
       </c>
       <c r="J23">
-        <v>1.001564741360231</v>
+        <v>1.003151144504201</v>
       </c>
       <c r="K23">
-        <v>1.037749487527577</v>
+        <v>1.036705493658159</v>
       </c>
       <c r="L23">
-        <v>0.9976566663728373</v>
+        <v>0.9990932180937317</v>
       </c>
       <c r="M23">
-        <v>1.012283445749922</v>
+        <v>1.012994690230685</v>
       </c>
       <c r="N23">
-        <v>1.003700260081395</v>
+        <v>1.008098230597522</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.018293561502307</v>
+        <v>1.018856481653006</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037821077744931</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037097470583365</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022269645688707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9783104899575559</v>
+        <v>0.9794114497157266</v>
       </c>
       <c r="D24">
-        <v>1.025998952981567</v>
+        <v>1.024555319403591</v>
       </c>
       <c r="E24">
-        <v>0.9885361676045846</v>
+        <v>0.9894948605171123</v>
       </c>
       <c r="F24">
-        <v>1.002727932293217</v>
+        <v>1.003206913619614</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040735735687805</v>
+        <v>1.040499054811253</v>
       </c>
       <c r="J24">
-        <v>1.006669804119993</v>
+        <v>1.007725740052811</v>
       </c>
       <c r="K24">
-        <v>1.039584379313592</v>
+        <v>1.038164514911311</v>
       </c>
       <c r="L24">
-        <v>1.002767636966882</v>
+        <v>1.003709004395246</v>
       </c>
       <c r="M24">
-        <v>1.01670731114458</v>
+        <v>1.017177945344191</v>
       </c>
       <c r="N24">
-        <v>1.005504489917128</v>
+        <v>1.008855242301688</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.021794857554363</v>
+        <v>1.022167342871032</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039110956915243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038120841339189</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022522644644138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9873463339691323</v>
+        <v>0.9881526511154181</v>
       </c>
       <c r="D25">
-        <v>1.029462555239441</v>
+        <v>1.027672547343201</v>
       </c>
       <c r="E25">
-        <v>0.9957606535772301</v>
+        <v>0.9964628119152904</v>
       </c>
       <c r="F25">
-        <v>1.00916869561237</v>
+        <v>1.009518652657621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042575706607185</v>
+        <v>1.042165905041671</v>
       </c>
       <c r="J25">
-        <v>1.012307179548076</v>
+        <v>1.013085411422804</v>
       </c>
       <c r="K25">
-        <v>1.041620093029552</v>
+        <v>1.039855950555362</v>
       </c>
       <c r="L25">
-        <v>1.008425138359761</v>
+        <v>1.009116287470927</v>
       </c>
       <c r="M25">
-        <v>1.021626327412762</v>
+        <v>1.021970979244077</v>
       </c>
       <c r="N25">
-        <v>1.007494857937084</v>
+        <v>1.010312007416649</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.025688022489941</v>
+        <v>1.025960797012015</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040547451887681</v>
+        <v>1.03931361739428</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022812841128963</v>
       </c>
     </row>
   </sheetData>
